--- a/Shocks/template.xlsx
+++ b/Shocks/template.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="468">
   <si>
     <t>AT</t>
   </si>
@@ -1357,9 +1357,6 @@
   </si>
   <si>
     <t>Employment: Vulnerable employment</t>
-  </si>
-  <si>
-    <t>Air transport extra emissions</t>
   </si>
   <si>
     <t>Households final consumption</t>
@@ -1809,7 +1806,7 @@
         <v>415</v>
       </c>
       <c r="E1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1826,7 +1823,7 @@
         <v>416</v>
       </c>
       <c r="E2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2177,18 +2174,15 @@
         <v>445</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>75</v>
       </c>
-      <c r="D33" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -2196,7 +2190,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -2204,7 +2198,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -2212,7 +2206,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -2220,7 +2214,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -2228,7 +2222,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -2236,7 +2230,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -2244,7 +2238,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -2252,7 +2246,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -2260,7 +2254,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -2268,27 +2262,27 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:2">
       <c r="B44" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:2">
       <c r="B45" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:2">
       <c r="B46" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:2">
       <c r="B47" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:2">
       <c r="B48" t="s">
         <v>90</v>
       </c>
@@ -3938,37 +3932,37 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>458</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>459</v>
       </c>
     </row>
   </sheetData>
@@ -4078,25 +4072,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>465</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>466</v>
       </c>
     </row>
   </sheetData>
@@ -4296,22 +4290,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>463</v>
-      </c>
       <c r="C1" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>468</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>465</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>466</v>
       </c>
     </row>
   </sheetData>
@@ -4481,28 +4475,28 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>463</v>
-      </c>
       <c r="C1" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>468</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>465</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>466</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="50">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
-      <formula1>indeces!$D$1:$D$33</formula1>
+      <formula1>indeces!$D$1:$D$32</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
       <formula1>indeces!$A$1:$A$43</formula1>
@@ -4517,7 +4511,7 @@
       <formula1>"Percentage,Absolute,Update"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3">
-      <formula1>indeces!$D$1:$D$33</formula1>
+      <formula1>indeces!$D$1:$D$32</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
       <formula1>indeces!$A$1:$A$43</formula1>
@@ -4532,7 +4526,7 @@
       <formula1>"Percentage,Absolute,Update"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4">
-      <formula1>indeces!$D$1:$D$33</formula1>
+      <formula1>indeces!$D$1:$D$32</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
       <formula1>indeces!$A$1:$A$43</formula1>
@@ -4547,7 +4541,7 @@
       <formula1>"Percentage,Absolute,Update"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5">
-      <formula1>indeces!$D$1:$D$33</formula1>
+      <formula1>indeces!$D$1:$D$32</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5">
       <formula1>indeces!$A$1:$A$43</formula1>
@@ -4562,7 +4556,7 @@
       <formula1>"Percentage,Absolute,Update"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6">
-      <formula1>indeces!$D$1:$D$33</formula1>
+      <formula1>indeces!$D$1:$D$32</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
       <formula1>indeces!$A$1:$A$43</formula1>
@@ -4577,7 +4571,7 @@
       <formula1>"Percentage,Absolute,Update"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7">
-      <formula1>indeces!$D$1:$D$33</formula1>
+      <formula1>indeces!$D$1:$D$32</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7">
       <formula1>indeces!$A$1:$A$43</formula1>
@@ -4592,7 +4586,7 @@
       <formula1>"Percentage,Absolute,Update"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8">
-      <formula1>indeces!$D$1:$D$33</formula1>
+      <formula1>indeces!$D$1:$D$32</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8">
       <formula1>indeces!$A$1:$A$43</formula1>
@@ -4607,7 +4601,7 @@
       <formula1>"Percentage,Absolute,Update"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9">
-      <formula1>indeces!$D$1:$D$33</formula1>
+      <formula1>indeces!$D$1:$D$32</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9">
       <formula1>indeces!$A$1:$A$43</formula1>
@@ -4622,7 +4616,7 @@
       <formula1>"Percentage,Absolute,Update"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A10">
-      <formula1>indeces!$D$1:$D$33</formula1>
+      <formula1>indeces!$D$1:$D$32</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10">
       <formula1>indeces!$A$1:$A$43</formula1>
@@ -4637,7 +4631,7 @@
       <formula1>"Percentage,Absolute,Update"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A11">
-      <formula1>indeces!$D$1:$D$33</formula1>
+      <formula1>indeces!$D$1:$D$32</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11">
       <formula1>indeces!$A$1:$A$43</formula1>
@@ -4666,28 +4660,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>463</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>468</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>465</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>466</v>
       </c>
     </row>
   </sheetData>
